--- a/BaseDeDados/corrupcao.xlsx
+++ b/BaseDeDados/corrupcao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D4F7AC-8DE9-4CD7-98F7-46924FC2822A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4B8DC-9D0C-44C0-8F6B-1080C70B7E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Resultados" sheetId="6" r:id="rId4"/>
     <sheet name="Teste de Normalidade" sheetId="7" r:id="rId5"/>
     <sheet name="Correlação Simples" sheetId="10" r:id="rId6"/>
+    <sheet name="Homocedasticidade" sheetId="12" r:id="rId7"/>
+    <sheet name="Durbin-Watson" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,8 +75,45 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C78B82CD-2086-408A-A87B-2366023D4A0E}</author>
+    <author>tc={12B5465B-E537-4E9A-85EC-A1D30365336D}</author>
+    <author>tc={41BBDB27-C9EF-4F72-A129-7D4D3B7F4B48}</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{C78B82CD-2086-408A-A87B-2366023D4A0E}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Obtidos da aba Resultados.</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0" xr:uid="{12B5465B-E537-4E9A-85EC-A1D30365336D}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Valores obtidos da aba Base de Dados.</t>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="2" shapeId="0" xr:uid="{41BBDB27-C9EF-4F72-A129-7D4D3B7F4B48}">
+      <text>
+        <t xml:space="preserve">[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Valores obtidos da aba Base de Dados.
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t>país</t>
   </si>
@@ -401,13 +440,61 @@
   </si>
   <si>
     <t>Vídeo de Referência: https://www.youtube.com/watch?v=9VeqXyLQvDk</t>
+  </si>
+  <si>
+    <t>Resíduos²</t>
+  </si>
+  <si>
+    <t>H1: Os dados apresentam heterocedasticidade</t>
+  </si>
+  <si>
+    <t>H0: Os dados apresentam homocedasticidade</t>
+  </si>
+  <si>
+    <t>Chi-square test statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>H0: Não existe correlação entre os resíduos</t>
+  </si>
+  <si>
+    <t>H1: Existe correlação entre os resíduos</t>
+  </si>
+  <si>
+    <t>Soma dos Resíduos²</t>
+  </si>
+  <si>
+    <t>Resíduos (t-1)</t>
+  </si>
+  <si>
+    <t>(Resíduos - Resíduos (t-1))²</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>Teste para autocorrelação usando a estatística Durbin-Watson - Minitab</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Referência da Tabela</t>
+  </si>
+  <si>
+    <t>Soma da Diferença²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +548,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +606,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -537,11 +668,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -573,6 +770,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,13 +796,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4582,13 +4818,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -4605,7 +4841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496050" y="1619250"/>
+          <a:off x="6410325" y="1809750"/>
           <a:ext cx="2305050" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4640,6 +4876,251 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
             <a:t> evidências para rejeitar H0 (Hipótese Nula). Portanto, vamos considerar nossa distribuição dos resíduos como normal!!</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F913E4AC-1A33-4CBF-BA21-62641F16C9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="1314450"/>
+          <a:ext cx="2305050" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Não temos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> evidências para rejeitar H0 (Hipótese Nula). Portanto, vamos considerar que nossos dados apresentam homocedasticidade!!</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525D7818-A11F-31CE-E6AA-AAB7D193C989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8639175" y="1795463"/>
+          <a:ext cx="781050" cy="385762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>191493</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D424944-538C-725D-83D0-BF7B73106AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="609600"/>
+          <a:ext cx="7116168" cy="323910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B3029A-AD9D-4DB3-B8E3-6BEE4D8FAD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="1333500"/>
+          <a:ext cx="2305050" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Como DW &gt; DU, não temos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> evidências para rejeitar H0 (Hipótese Nula). Portanto, vamos considerar que nossos resíduos não apresentam correlação!</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
@@ -4953,6 +5434,21 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A5" dT="2023-12-07T23:51:20.96" personId="{89E9AA73-9DDC-461F-BF5D-A675841B6C82}" id="{C78B82CD-2086-408A-A87B-2366023D4A0E}">
+    <text>Obtidos da aba Resultados.</text>
+  </threadedComment>
+  <threadedComment ref="C5" dT="2023-12-07T23:53:54.50" personId="{89E9AA73-9DDC-461F-BF5D-A675841B6C82}" id="{12B5465B-E537-4E9A-85EC-A1D30365336D}">
+    <text>Valores obtidos da aba Base de Dados.</text>
+  </threadedComment>
+  <threadedComment ref="D5" dT="2023-12-07T23:53:57.49" personId="{89E9AA73-9DDC-461F-BF5D-A675841B6C82}" id="{41BBDB27-C9EF-4F72-A129-7D4D3B7F4B48}">
+    <text xml:space="preserve">Valores obtidos da aba Base de Dados.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -4960,8 +5456,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D35" sqref="D1:E1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6068,8 +6564,8 @@
   </sheetPr>
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C77"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6921,7 +7417,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E3" sqref="E3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6936,24 +7432,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
@@ -6970,11 +7466,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="E4" s="10" t="s">
         <v>97</v>
       </c>
@@ -6991,11 +7487,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="E5" s="10" t="s">
         <v>98</v>
       </c>
@@ -8102,42 +8598,2063 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC6A0B1-D2FE-451F-9E06-5D54F371ADB9}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="5">
         <v>-0.24102563045510511</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE3D9DE-387D-42E8-A172-4185F7CA9C14}">
+  <dimension ref="A1:O57"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>-2.443954661177075</v>
+      </c>
+      <c r="B6" s="17">
+        <f>A6^2</f>
+        <v>5.972914385889152</v>
+      </c>
+      <c r="C6" s="19">
+        <v>72</v>
+      </c>
+      <c r="D6" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2.6428522360119704</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" ref="B7:B57" si="0">A7^2</f>
+        <v>6.9846679413934716</v>
+      </c>
+      <c r="C7" s="19">
+        <v>64</v>
+      </c>
+      <c r="D7" s="19">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="J7" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1.2824524323683359</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6446842412874614</v>
+      </c>
+      <c r="C8" s="19">
+        <v>72</v>
+      </c>
+      <c r="D8" s="19">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8">
+        <v>9.0097362241050999E-2</v>
+      </c>
+      <c r="J8" s="27">
+        <f>H12*H9</f>
+        <v>0.42211180350534838</v>
+      </c>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2.6093618915819405E-2</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>6.808769481240083E-4</v>
+      </c>
+      <c r="C9" s="19">
+        <v>67</v>
+      </c>
+      <c r="D9" s="19">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="21">
+        <v>8.1175346827951616E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>-0.73330456302366009</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.53773558215132111</v>
+      </c>
+      <c r="C10" s="19">
+        <v>59</v>
+      </c>
+      <c r="D10" s="19">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10">
+        <v>-3.2367463901580545E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>3.647346083060155</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="0"/>
+        <v>13.303133449614254</v>
+      </c>
+      <c r="C11" s="19">
+        <v>61</v>
+      </c>
+      <c r="D11" s="19">
+        <v>33.400001525878913</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11">
+        <v>3.6396135758722172</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1.5716141063389184</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>2.469970899243477</v>
+      </c>
+      <c r="C12" s="19">
+        <v>70</v>
+      </c>
+      <c r="D12" s="19">
+        <v>34</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="20">
+        <v>52</v>
+      </c>
+      <c r="J12" s="27">
+        <f>_xlfn.CHISQ.DIST.RT(J8,H16)</f>
+        <v>0.8097288003569183</v>
+      </c>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>-0.65733546734316128</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.43208991662725227</v>
+      </c>
+      <c r="C13" s="19">
+        <v>49</v>
+      </c>
+      <c r="D13" s="19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>-3.1833667727085828</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>10.133824009585059</v>
+      </c>
+      <c r="C14" s="19">
+        <v>79</v>
+      </c>
+      <c r="D14" s="19">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0.66315268479114131</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.43977148334569882</v>
+      </c>
+      <c r="C15" s="19">
+        <v>58</v>
+      </c>
+      <c r="D15" s="19">
+        <v>32</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2.6735908401888437</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>7.1480879807416873</v>
+      </c>
+      <c r="C16" s="19">
+        <v>42</v>
+      </c>
+      <c r="D16" s="19">
+        <v>38.099998474121087</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>5.3121529711912672</v>
+      </c>
+      <c r="J16">
+        <v>2.6560764855956336</v>
+      </c>
+      <c r="K16">
+        <v>0.20050722407405355</v>
+      </c>
+      <c r="L16">
+        <v>0.8189836154617578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>1.5531905452264123</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>2.4124008697807198</v>
+      </c>
+      <c r="C17" s="19">
+        <v>76</v>
+      </c>
+      <c r="D17" s="19">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17">
+        <v>49</v>
+      </c>
+      <c r="I17">
+        <v>649.09256210199408</v>
+      </c>
+      <c r="J17">
+        <v>13.246786981673349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>-2.6068976125293966</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>6.7959151622114682</v>
+      </c>
+      <c r="C18" s="19">
+        <v>59</v>
+      </c>
+      <c r="D18" s="19">
+        <v>32</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="5">
+        <v>51</v>
+      </c>
+      <c r="I18" s="5">
+        <v>654.40471507318534</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>-0.52650938746413978</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.27721213508786369</v>
+      </c>
+      <c r="C19" s="19">
+        <v>70</v>
+      </c>
+      <c r="D19" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>-0.20763686000409898</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="0"/>
+        <v>4.3113065632361801E-2</v>
+      </c>
+      <c r="C20" s="19">
+        <v>66</v>
+      </c>
+      <c r="D20" s="19">
+        <v>27.5</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>-3.1260094660165958</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="0"/>
+        <v>9.7719351816253628</v>
+      </c>
+      <c r="C21" s="19">
+        <v>60</v>
+      </c>
+      <c r="D21" s="19">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>-1.3887477801541328</v>
+      </c>
+      <c r="I21">
+        <v>8.7319901638044293</v>
+      </c>
+      <c r="J21">
+        <v>-0.15904138164409831</v>
+      </c>
+      <c r="K21">
+        <v>0.87428999316023914</v>
+      </c>
+      <c r="L21">
+        <v>-18.9363389841916</v>
+      </c>
+      <c r="M21">
+        <v>16.158843423883333</v>
+      </c>
+      <c r="N21">
+        <v>-18.9363389841916</v>
+      </c>
+      <c r="O21">
+        <v>16.158843423883333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2.7888715813292873</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="0"/>
+        <v>7.7778046971461192</v>
+      </c>
+      <c r="C22" s="19">
+        <v>53</v>
+      </c>
+      <c r="D22" s="19">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22">
+        <v>3.33916437332814E-2</v>
+      </c>
+      <c r="I22">
+        <v>6.018810530258769E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.55478808587526318</v>
+      </c>
+      <c r="K22">
+        <v>0.58156336000968223</v>
+      </c>
+      <c r="L22">
+        <v>-8.756088225252584E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.15434416971908865</v>
+      </c>
+      <c r="N22">
+        <v>-8.756088225252584E-2</v>
+      </c>
+      <c r="O22">
+        <v>0.15434416971908865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>-3.1307159864824126</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="0"/>
+        <v>9.8013825880165459</v>
+      </c>
+      <c r="C23" s="19">
+        <v>56</v>
+      </c>
+      <c r="D23" s="19">
+        <v>29.79999923706055</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="5">
+        <v>9.2349232490161706E-2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.21474377915658924</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.43004380780139606</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.6690492265752106</v>
+      </c>
+      <c r="L23" s="5">
+        <v>-0.33919454843047003</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.52389301341079342</v>
+      </c>
+      <c r="N23" s="5">
+        <v>-0.33919454843047003</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.52389301341079342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>-2.5503011564913489</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="0"/>
+        <v>6.5040359888011121</v>
+      </c>
+      <c r="C24" s="19">
+        <v>63</v>
+      </c>
+      <c r="D24" s="19">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1.7157304359009107</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9437309286767288</v>
+      </c>
+      <c r="C25" s="19">
+        <v>63</v>
+      </c>
+      <c r="D25" s="19">
+        <v>31.29999923706055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.91951183113506829</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.84550200759736638</v>
+      </c>
+      <c r="C26" s="19">
+        <v>63</v>
+      </c>
+      <c r="D26" s="19">
+        <v>33.900001525878913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>-0.9812021447686603</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.96275764889861903</v>
+      </c>
+      <c r="C27" s="19">
+        <v>66</v>
+      </c>
+      <c r="D27" s="19">
+        <v>35.099998474121087</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2.6492235106538811</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="0"/>
+        <v>7.0183852094012744</v>
+      </c>
+      <c r="C28" s="19">
+        <v>65</v>
+      </c>
+      <c r="D28" s="19">
+        <v>34.299999237060547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>-0.94953776498348885</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.90162196712983933</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44</v>
+      </c>
+      <c r="D29" s="19">
+        <v>33.900001525878913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>-1.2472345155065536</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5555939366708675</v>
+      </c>
+      <c r="C30" s="19">
+        <v>62</v>
+      </c>
+      <c r="D30" s="19">
+        <v>32.400001525878913</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>-1.9332562595511824</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="0"/>
+        <v>3.7374797650938287</v>
+      </c>
+      <c r="C31" s="19">
+        <v>39</v>
+      </c>
+      <c r="D31" s="19">
+        <v>31.70000076293945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>-1.9479731276867707</v>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="0"/>
+        <v>3.7945993061897796</v>
+      </c>
+      <c r="C32" s="19">
+        <v>73</v>
+      </c>
+      <c r="D32" s="19">
+        <v>32.799999237060547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>-1.2314262312285398</v>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5164105629577251</v>
+      </c>
+      <c r="C33" s="19">
+        <v>63</v>
+      </c>
+      <c r="D33" s="19">
+        <v>35.900001525878913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>0.74544128939037257</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="0"/>
+        <v>0.55568271592798124</v>
+      </c>
+      <c r="C34" s="19">
+        <v>61</v>
+      </c>
+      <c r="D34" s="19">
+        <v>26.79999923706055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2.7482716374452583</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="0"/>
+        <v>7.5529969931860412</v>
+      </c>
+      <c r="C35" s="19">
+        <v>65</v>
+      </c>
+      <c r="D35" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>0.46265122295311301</v>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="0"/>
+        <v>0.21404615410001107</v>
+      </c>
+      <c r="C36" s="19">
+        <v>64</v>
+      </c>
+      <c r="D36" s="19">
+        <v>27.10000038146973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>0.17259017126440135</v>
+      </c>
+      <c r="B37" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9787367217075388E-2</v>
+      </c>
+      <c r="C37" s="19">
+        <v>58</v>
+      </c>
+      <c r="D37" s="19">
+        <v>33.200000762939453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>-3.2814636615858279</v>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" si="0"/>
+        <v>10.768003762308268</v>
+      </c>
+      <c r="C38" s="19">
+        <v>75</v>
+      </c>
+      <c r="D38" s="19">
+        <v>34.700000762939453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2.770738587446246</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="0"/>
+        <v>7.6769923199636185</v>
+      </c>
+      <c r="C39" s="19">
+        <v>50</v>
+      </c>
+      <c r="D39" s="19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>0.1020398571288883</v>
+      </c>
+      <c r="B40" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0412132442883937E-2</v>
+      </c>
+      <c r="C40" s="19">
+        <v>69</v>
+      </c>
+      <c r="D40" s="19">
+        <v>33.200000762939453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>-1.505970137178684</v>
+      </c>
+      <c r="B41" s="17">
+        <f t="shared" si="0"/>
+        <v>2.2679460540739842</v>
+      </c>
+      <c r="C41" s="19">
+        <v>67</v>
+      </c>
+      <c r="D41" s="19">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>-1.4651070093366418</v>
+      </c>
+      <c r="B42" s="17">
+        <f t="shared" si="0"/>
+        <v>2.1465385488073587</v>
+      </c>
+      <c r="C42" s="19">
+        <v>46</v>
+      </c>
+      <c r="D42" s="19">
+        <v>34.900001525878913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>-0.17269227669725673</v>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9822622430881879E-2</v>
+      </c>
+      <c r="C43" s="19">
+        <v>58</v>
+      </c>
+      <c r="D43" s="19">
+        <v>33.799999237060547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>-1.2856701175529555</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6529476511686303</v>
+      </c>
+      <c r="C44" s="19">
+        <v>61</v>
+      </c>
+      <c r="D44" s="19">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>2.5381216037905343</v>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="0"/>
+        <v>6.4420612756282338</v>
+      </c>
+      <c r="C45" s="19">
+        <v>68</v>
+      </c>
+      <c r="D45" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>0.90513172200094871</v>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="0"/>
+        <v>0.81926343417240266</v>
+      </c>
+      <c r="C46" s="19">
+        <v>64</v>
+      </c>
+      <c r="D46" s="19">
+        <v>37.799999237060547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>9.8045836160821409E-2</v>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="0"/>
+        <v>9.6129859884746347E-3</v>
+      </c>
+      <c r="C47" s="19">
+        <v>62</v>
+      </c>
+      <c r="D47" s="19">
+        <v>31.79999923706055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>1.8734902310661337</v>
+      </c>
+      <c r="B48" s="17">
+        <f t="shared" si="0"/>
+        <v>3.5099656459002349</v>
+      </c>
+      <c r="C48" s="19">
+        <v>70</v>
+      </c>
+      <c r="D48" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>2.5728022247937279</v>
+      </c>
+      <c r="B49" s="17">
+        <f t="shared" si="0"/>
+        <v>6.6193112879035558</v>
+      </c>
+      <c r="C49" s="19">
+        <v>65</v>
+      </c>
+      <c r="D49" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>0.70441701543529511</v>
+      </c>
+      <c r="B50" s="17">
+        <f t="shared" si="0"/>
+        <v>0.49620333163476882</v>
+      </c>
+      <c r="C50" s="19">
+        <v>63</v>
+      </c>
+      <c r="D50" s="19">
+        <v>34.099998474121087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>-3.1769720692892669</v>
+      </c>
+      <c r="B51" s="17">
+        <f t="shared" si="0"/>
+        <v>10.093151529044126</v>
+      </c>
+      <c r="C51" s="19">
+        <v>68</v>
+      </c>
+      <c r="D51" s="19">
+        <v>31.20000076293945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>-0.38567002218552382</v>
+      </c>
+      <c r="B52" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14874136601258245</v>
+      </c>
+      <c r="C52" s="19">
+        <v>61</v>
+      </c>
+      <c r="D52" s="19">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>-1.9165228023577838</v>
+      </c>
+      <c r="B53" s="17">
+        <f t="shared" si="0"/>
+        <v>3.6730596519573329</v>
+      </c>
+      <c r="C53" s="19">
+        <v>44</v>
+      </c>
+      <c r="D53" s="19">
+        <v>32.799999237060547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>0.8350811708556467</v>
+      </c>
+      <c r="B54" s="17">
+        <f t="shared" si="0"/>
+        <v>0.69736056191763784</v>
+      </c>
+      <c r="C54" s="19">
+        <v>61</v>
+      </c>
+      <c r="D54" s="19">
+        <v>32.900001525878913</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>1.8655048253513318</v>
+      </c>
+      <c r="B55" s="17">
+        <f t="shared" si="0"/>
+        <v>3.480108253409103</v>
+      </c>
+      <c r="C55" s="19">
+        <v>60</v>
+      </c>
+      <c r="D55" s="19">
+        <v>32.099998474121087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>2.03412974220665</v>
+      </c>
+      <c r="B56" s="17">
+        <f t="shared" si="0"/>
+        <v>4.1376838081296921</v>
+      </c>
+      <c r="C56" s="19">
+        <v>65</v>
+      </c>
+      <c r="D56" s="19">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>-1.9153569700604116</v>
+      </c>
+      <c r="B57" s="17">
+        <f t="shared" si="0"/>
+        <v>3.6685923227590007</v>
+      </c>
+      <c r="C57" s="19">
+        <v>51</v>
+      </c>
+      <c r="D57" s="19">
+        <v>34.900001525878913</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DDC3C-8371-4FCB-950F-D25A4B661548}">
+  <dimension ref="A1:L58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="H2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="2">
+        <f>SUM(B7:B58)</f>
+        <v>192.42773356382844</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.4741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="H3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SUM(D7:D58)</f>
+        <v>384.02603452109332</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.6333899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="H4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="2">
+        <f>I3/I2</f>
+        <v>1.9956896410345735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>-2.443954661177075</v>
+      </c>
+      <c r="B7" s="32">
+        <f>A7*A7</f>
+        <v>5.972914385889152</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="H7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2.6428522360119704</v>
+      </c>
+      <c r="B8" s="32">
+        <f t="shared" ref="B8:C58" si="0">A8*A8</f>
+        <v>6.9846679413934716</v>
+      </c>
+      <c r="C8" s="32">
+        <v>-2.443954661177075</v>
+      </c>
+      <c r="D8" s="12">
+        <f>(A8-C8)^2</f>
+        <v>25.875604409290048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1.2824524323683359</v>
+      </c>
+      <c r="B9" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6446842412874614</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2.6428522360119704</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" ref="D9:D58" si="1">(A9-C9)^2</f>
+        <v>1.8506876257536391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2.6093618915819405E-2</v>
+      </c>
+      <c r="B10" s="32">
+        <f t="shared" si="0"/>
+        <v>6.808769481240083E-4</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1.2824524323683359</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5784374681398152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>-0.73330456302366009</v>
+      </c>
+      <c r="B11" s="32">
+        <f t="shared" si="0"/>
+        <v>0.53773558215132111</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2.6093618915819405E-2</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.57668559873298686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3.647346083060155</v>
+      </c>
+      <c r="B12" s="32">
+        <f t="shared" si="0"/>
+        <v>13.303133449614254</v>
+      </c>
+      <c r="C12" s="32">
+        <v>-0.73330456302366009</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>19.190100083034547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1.5716141063389184</v>
+      </c>
+      <c r="B13" s="32">
+        <f t="shared" si="0"/>
+        <v>2.469970899243477</v>
+      </c>
+      <c r="C13" s="32">
+        <v>3.647346083060155</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3086632391830522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>-0.65733546734316128</v>
+      </c>
+      <c r="B14" s="32">
+        <f t="shared" si="0"/>
+        <v>0.43208991662725227</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1.5716141063389184</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>4.9682162020175245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>-3.1833667727085828</v>
+      </c>
+      <c r="B15" s="32">
+        <f t="shared" si="0"/>
+        <v>10.133824009585059</v>
+      </c>
+      <c r="C15" s="32">
+        <v>-0.65733546734316128</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3808341556861352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>0.66315268479114131</v>
+      </c>
+      <c r="B16" s="32">
+        <f t="shared" si="0"/>
+        <v>0.43977148334569882</v>
+      </c>
+      <c r="C16" s="32">
+        <v>-3.1833667727085828</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>14.795711936923972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2.6735908401888437</v>
+      </c>
+      <c r="B17" s="32">
+        <f t="shared" si="0"/>
+        <v>7.1480879807416873</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0.66315268479114131</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0418615766789161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1.5531905452264123</v>
+      </c>
+      <c r="B18" s="32">
+        <f t="shared" si="0"/>
+        <v>2.4124008697807198</v>
+      </c>
+      <c r="C18" s="32">
+        <v>2.6735908401888437</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2552968209519033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>-2.6068976125293966</v>
+      </c>
+      <c r="B19" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7959151622114682</v>
+      </c>
+      <c r="C19" s="32">
+        <v>1.5531905452264123</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>17.306333480300115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>-0.52650938746413978</v>
+      </c>
+      <c r="B20" s="32">
+        <f t="shared" si="0"/>
+        <v>0.27721213508786369</v>
+      </c>
+      <c r="C20" s="32">
+        <v>-2.6068976125293966</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3280151669901699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>-0.20763686000409898</v>
+      </c>
+      <c r="B21" s="32">
+        <f t="shared" si="0"/>
+        <v>4.3113065632361801E-2</v>
+      </c>
+      <c r="C21" s="32">
+        <v>-0.52650938746413978</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.10167968876875448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>-3.1260094660165958</v>
+      </c>
+      <c r="B22" s="32">
+        <f t="shared" si="0"/>
+        <v>9.7719351816253628</v>
+      </c>
+      <c r="C22" s="32">
+        <v>-0.20763686000409898</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="1"/>
+        <v>8.5168986675241722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2.7888715813292873</v>
+      </c>
+      <c r="B23" s="32">
+        <f t="shared" si="0"/>
+        <v>7.7778046971461192</v>
+      </c>
+      <c r="C23" s="32">
+        <v>-3.1260094660165958</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="1"/>
+        <v>34.985817804251532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>-3.1307159864824126</v>
+      </c>
+      <c r="B24" s="32">
+        <f t="shared" si="0"/>
+        <v>9.8013825880165459</v>
+      </c>
+      <c r="C24" s="32">
+        <v>2.7888715813292873</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="1"/>
+        <v>35.041516972990834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>-2.5503011564913489</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" si="0"/>
+        <v>6.5040359888011121</v>
+      </c>
+      <c r="C25" s="32">
+        <v>-3.1307159864824126</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="1"/>
+        <v>0.33688137487355529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1.7157304359009107</v>
+      </c>
+      <c r="B26" s="32">
+        <f t="shared" si="0"/>
+        <v>2.9437309286767288</v>
+      </c>
+      <c r="C26" s="32">
+        <v>-2.5503011564913489</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="1"/>
+        <v>18.199025547288837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.91951183113506829</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" si="0"/>
+        <v>0.84550200759736638</v>
+      </c>
+      <c r="C27" s="32">
+        <v>1.7157304359009107</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63396406657526472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>-0.9812021447686603</v>
+      </c>
+      <c r="B28" s="32">
+        <f t="shared" si="0"/>
+        <v>0.96275764889861903</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0.91951183113506829</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="1"/>
+        <v>3.6127136181957598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2.6492235106538811</v>
+      </c>
+      <c r="B29" s="32">
+        <f t="shared" si="0"/>
+        <v>7.0183852094012744</v>
+      </c>
+      <c r="C29" s="32">
+        <v>-0.9812021447686603</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="1"/>
+        <v>13.179990439550188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>-0.94953776498348885</v>
+      </c>
+      <c r="B30" s="32">
+        <f t="shared" si="0"/>
+        <v>0.90162196712983933</v>
+      </c>
+      <c r="C30" s="32">
+        <v>2.6492235106538811</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="1"/>
+        <v>12.951082719027109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>-1.2472345155065536</v>
+      </c>
+      <c r="B31" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5555939366708675</v>
+      </c>
+      <c r="C31" s="32">
+        <v>-0.94953776498348885</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="1"/>
+        <v>8.862335527199186E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>-1.9332562595511824</v>
+      </c>
+      <c r="B32" s="32">
+        <f t="shared" si="0"/>
+        <v>3.7374797650938287</v>
+      </c>
+      <c r="C32" s="32">
+        <v>-1.2472345155065536</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.47062583330203417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>-1.9479731276867707</v>
+      </c>
+      <c r="B33" s="32">
+        <f t="shared" si="0"/>
+        <v>3.7945993061897796</v>
+      </c>
+      <c r="C33" s="32">
+        <v>-1.9332562595511824</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="1"/>
+        <v>2.1658620772029298E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>-1.2314262312285398</v>
+      </c>
+      <c r="B34" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5164105629577251</v>
+      </c>
+      <c r="C34" s="32">
+        <v>-1.9479731276867707</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.51343945482392261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0.74544128939037257</v>
+      </c>
+      <c r="B35" s="32">
+        <f t="shared" si="0"/>
+        <v>0.55568271592798124</v>
+      </c>
+      <c r="C35" s="32">
+        <v>-1.2314262312285398</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="1"/>
+        <v>3.9080051940779659</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2.7482716374452583</v>
+      </c>
+      <c r="B36" s="32">
+        <f t="shared" si="0"/>
+        <v>7.5529969931860412</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.74544128939037257</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="1"/>
+        <v>4.0113294030896549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.46265122295311301</v>
+      </c>
+      <c r="B37" s="32">
+        <f t="shared" si="0"/>
+        <v>0.21404615410001107</v>
+      </c>
+      <c r="C37" s="32">
+        <v>2.7482716374452583</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" si="1"/>
+        <v>5.2240606791432462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0.17259017126440135</v>
+      </c>
+      <c r="B38" s="32">
+        <f t="shared" si="0"/>
+        <v>2.9787367217075388E-2</v>
+      </c>
+      <c r="C38" s="32">
+        <v>0.46265122295311301</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="1"/>
+        <v>8.4135413706761461E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>-3.2814636615858279</v>
+      </c>
+      <c r="B39" s="32">
+        <f t="shared" si="0"/>
+        <v>10.768003762308268</v>
+      </c>
+      <c r="C39" s="32">
+        <v>0.17259017126440135</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="1"/>
+        <v>11.930487880227359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2.770738587446246</v>
+      </c>
+      <c r="B40" s="32">
+        <f t="shared" si="0"/>
+        <v>7.6769923199636185</v>
+      </c>
+      <c r="C40" s="32">
+        <v>-3.2814636615858279</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="1"/>
+        <v>36.629152063188897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>0.1020398571288883</v>
+      </c>
+      <c r="B41" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0412132442883937E-2</v>
+      </c>
+      <c r="C41" s="32">
+        <v>2.770738587446246</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="1"/>
+        <v>7.121952913197477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>-1.505970137178684</v>
+      </c>
+      <c r="B42" s="32">
+        <f t="shared" si="0"/>
+        <v>2.2679460540739842</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.1020398571288883</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="1"/>
+        <v>2.5856961417930386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>-1.4651070093366418</v>
+      </c>
+      <c r="B43" s="32">
+        <f t="shared" si="0"/>
+        <v>2.1465385488073587</v>
+      </c>
+      <c r="C43" s="32">
+        <v>-1.505970137178684</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6697952170350808E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>-0.17269227669725673</v>
+      </c>
+      <c r="B44" s="32">
+        <f t="shared" si="0"/>
+        <v>2.9822622430881879E-2</v>
+      </c>
+      <c r="C44" s="32">
+        <v>-1.4651070093366418</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6703358411433333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>-1.2856701175529555</v>
+      </c>
+      <c r="B45" s="32">
+        <f t="shared" si="0"/>
+        <v>1.6529476511686303</v>
+      </c>
+      <c r="C45" s="32">
+        <v>-0.17269227669725673</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2387196742358131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2.5381216037905343</v>
+      </c>
+      <c r="B46" s="32">
+        <f t="shared" si="0"/>
+        <v>6.4420612756282338</v>
+      </c>
+      <c r="C46" s="32">
+        <v>-1.2856701175529555</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" si="1"/>
+        <v>14.621383128215008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>0.90513172200094871</v>
+      </c>
+      <c r="B47" s="32">
+        <f t="shared" si="0"/>
+        <v>0.81926343417240266</v>
+      </c>
+      <c r="C47" s="32">
+        <v>2.5381216037905343</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="1"/>
+        <v>2.6666559540271648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>9.8045836160821409E-2</v>
+      </c>
+      <c r="B48" s="32">
+        <f t="shared" si="0"/>
+        <v>9.6129859884746347E-3</v>
+      </c>
+      <c r="C48" s="32">
+        <v>0.90513172200094871</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="1"/>
+        <v>0.65138762712234299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1.8734902310661337</v>
+      </c>
+      <c r="B49" s="32">
+        <f t="shared" si="0"/>
+        <v>3.5099656459002349</v>
+      </c>
+      <c r="C49" s="32">
+        <v>9.8045836160821409E-2</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="1"/>
+        <v>3.1522027994006905</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2.5728022247937279</v>
+      </c>
+      <c r="B50" s="32">
+        <f t="shared" si="0"/>
+        <v>6.6193112879035558</v>
+      </c>
+      <c r="C50" s="32">
+        <v>1.8734902310661337</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="1"/>
+        <v>0.48903726457126279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.70441701543529511</v>
+      </c>
+      <c r="B51" s="32">
+        <f t="shared" si="0"/>
+        <v>0.49620333163476882</v>
+      </c>
+      <c r="C51" s="32">
+        <v>2.5728022247937279</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4908632905493548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>-3.1769720692892669</v>
+      </c>
+      <c r="B52" s="32">
+        <f t="shared" si="0"/>
+        <v>10.093151529044126</v>
+      </c>
+      <c r="C52" s="32">
+        <v>0.70441701543529511</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="1"/>
+        <v>15.065181227018973</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>-0.38567002218552382</v>
+      </c>
+      <c r="B53" s="32">
+        <f t="shared" si="0"/>
+        <v>0.14874136601258245</v>
+      </c>
+      <c r="C53" s="32">
+        <v>-3.1769720692892669</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="1"/>
+        <v>7.7913671181655468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>-1.9165228023577838</v>
+      </c>
+      <c r="B54" s="32">
+        <f t="shared" si="0"/>
+        <v>3.6730596519573329</v>
+      </c>
+      <c r="C54" s="32">
+        <v>-0.38567002218552382</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="1"/>
+        <v>2.3435102345611378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>0.8350811708556467</v>
+      </c>
+      <c r="B55" s="32">
+        <f t="shared" si="0"/>
+        <v>0.69736056191763784</v>
+      </c>
+      <c r="C55" s="32">
+        <v>-1.9165228023577838</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="1"/>
+        <v>7.5713244254039376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>1.8655048253513318</v>
+      </c>
+      <c r="B56" s="32">
+        <f t="shared" si="0"/>
+        <v>3.480108253409103</v>
+      </c>
+      <c r="C56" s="32">
+        <v>0.8350811708556467</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="1"/>
+        <v>1.061772907744243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2.03412974220665</v>
+      </c>
+      <c r="B57" s="32">
+        <f t="shared" si="0"/>
+        <v>4.1376838081296921</v>
+      </c>
+      <c r="C57" s="32">
+        <v>1.8655048253513318</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8434362584462983E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>-1.9153569700604116</v>
+      </c>
+      <c r="B58" s="32">
+        <f t="shared" si="0"/>
+        <v>3.6685923227590007</v>
+      </c>
+      <c r="C58" s="32">
+        <v>2.03412974220665</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="1"/>
+        <v>15.598445290374084</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" display="https://support.minitab.com/pt-br/minitab/20/help-and-how-to/statistical-modeling/regression/supporting-topics/model-assumptions/test-for-autocorrelation-by-using-the-durbin-watson-statistic/" xr:uid="{1A0B550F-CAAB-45BB-98D8-DF2251C251A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>